--- a/data/pobProb.xlsx
+++ b/data/pobProb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\usuarios\1077841023\Documents\GIT\IntegradoraDiscretas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757183C3-7B36-4E08-9BB9-B6BF9ECC67D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E579F-F2E7-463F-963B-D8D7A4384A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AD7D6C99-4922-4445-B0E2-87F80E047F4E}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{AD7D6C99-4922-4445-B0E2-87F80E047F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>USA</t>
   </si>
@@ -39,6 +49,18 @@
     <t>Guatemala</t>
   </si>
   <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
     <t>Haiti</t>
   </si>
   <si>
@@ -48,12 +70,18 @@
     <t>Dominician Republic</t>
   </si>
   <si>
+    <t>0.0106</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>Nicaragua</t>
   </si>
   <si>
+    <t>0.0064</t>
+  </si>
+  <si>
     <t>El salvador</t>
   </si>
   <si>
@@ -63,18 +91,39 @@
     <t>Panama</t>
   </si>
   <si>
+    <t>0.0049</t>
+  </si>
+  <si>
+    <t>0.0028</t>
+  </si>
+  <si>
+    <t>0.0063</t>
+  </si>
+  <si>
+    <t>0.0042</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jamaica </t>
   </si>
   <si>
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t>0.0027</t>
+  </si>
+  <si>
+    <t>0.0013</t>
+  </si>
+  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>0.00039</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -84,51 +133,99 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>0.00038</t>
+  </si>
+  <si>
+    <t>0.00036</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t>Colombia</t>
   </si>
   <si>
+    <t>0.049</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
+    <t>0.044</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
+    <t>0.032</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
+    <t>0.027</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
+    <t>0.018</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
     <t>Bolivia</t>
   </si>
   <si>
+    <t>0.011</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
+    <t>0.0069</t>
+  </si>
+  <si>
     <t>Uruguay</t>
   </si>
   <si>
+    <t>0.0033</t>
+  </si>
+  <si>
     <t>Guyana</t>
   </si>
   <si>
+    <t>0.00076</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
+    <t>0.00057</t>
+  </si>
+  <si>
+    <t>0.00029</t>
+  </si>
+  <si>
     <t>French Guiana</t>
   </si>
   <si>
     <t>Falkland Islands</t>
   </si>
   <si>
+    <t>0.0000034</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
+    <t>0.00028</t>
+  </si>
+  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
@@ -190,6 +287,69 @@
   </si>
   <si>
     <t>Montserrat</t>
+  </si>
+  <si>
+    <t>0.00027</t>
+  </si>
+  <si>
+    <t>0.00016</t>
+  </si>
+  <si>
+    <t>0.00011</t>
+  </si>
+  <si>
+    <t>0.000108</t>
+  </si>
+  <si>
+    <t>0.000104</t>
+  </si>
+  <si>
+    <t>0.000102</t>
+  </si>
+  <si>
+    <t>0.000095</t>
+  </si>
+  <si>
+    <t>0.0000096</t>
+  </si>
+  <si>
+    <t>0.0000703</t>
+  </si>
+  <si>
+    <t>0.000064</t>
+  </si>
+  <si>
+    <t>0.000061</t>
+  </si>
+  <si>
+    <t>0.000055</t>
+  </si>
+  <si>
+    <t>0.000052</t>
+  </si>
+  <si>
+    <t>0.000051</t>
+  </si>
+  <si>
+    <t>0.000037</t>
+  </si>
+  <si>
+    <t>0.000029</t>
+  </si>
+  <si>
+    <t>0.000025</t>
+  </si>
+  <si>
+    <t>0.000014</t>
+  </si>
+  <si>
+    <t>0.0000056</t>
+  </si>
+  <si>
+    <t>0.0000048</t>
+  </si>
+  <si>
+    <t>0.0096</t>
   </si>
   <si>
     <t>South America</t>
@@ -265,7 +425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,856 +721,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08A4116-B9B3-4FF7-82A3-3377BBC85599}">
-  <dimension ref="B1:O55"/>
+  <dimension ref="B1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="H1">
-        <f>(D1*K2)+(K2-1082658869.56283)</f>
-        <v>369868927.15717006</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.20699999999999999</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2">
-        <f>SUM(D2*$K$2,H1)</f>
-        <v>597651695.27917004</v>
-      </c>
-      <c r="K2">
-        <f>PRODUCT(6782,162253)</f>
-        <v>1100399846</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.12</v>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H55" si="0">SUM(D3*$K$2,H2)</f>
-        <v>729699676.79917002</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>783619269.25317001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>832036862.47716999</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>871651256.93316996</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>906864052.00516999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>936574847.84717</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>956382045.07517004</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>975088842.45717001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>993795639.83916998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>1005900038.14517</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>1018004436.45117</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>1030108834.75717</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.06E-2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>1041773073.1247699</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>1052336911.6463699</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>1059929670.5837699</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1066972229.5981699</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6.3E-3</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>1073904748.62797</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>1079296707.8733699</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>1083918387.2265699</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3.3E-3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>1087549706.71837</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>1090630826.2871699</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>1093601905.8713698</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>1095032425.6711698</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2">
-        <v>7.6000000000000004E-4</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1095868729.5541298</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5.6999999999999998E-4</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>1096495957.4663498</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>1096925113.4062898</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3.8000000000000002E-4</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>1097343265.3477697</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3.8000000000000002E-4</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>1097761417.2892497</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>1098157561.2338097</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2.9E-4</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>1098476677.1891496</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>1098784789.1460297</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2.7E-4</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1099081897.1044497</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>1099257961.0798097</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.1E-4</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>1099379005.0628695</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.08E-4</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>1099497848.2462375</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.0399999999999999E-4</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>1099612289.8302214</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.02E-4</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>1099724530.6145134</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>1099829068.5998833</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1">
-        <v>7.0300000000000001E-5</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>1099906426.7090571</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="1">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>1099976852.299201</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="1">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>1100043976.6898069</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="1">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>1100104498.6813369</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>1100161719.4733288</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5.1E-5</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>1100217839.8654749</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>1100258554.6597769</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>1100299269.4540789</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2.9E-5</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>1100331181.049613</v>
-      </c>
-      <c r="O49">
-        <v>1082658869.56283</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>1100358691.045763</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1.4E-5</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>1100374096.6436069</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="1">
-        <v>9.5999999999999996E-6</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>1100384660.4821286</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5.5999999999999997E-6</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>1100390822.7212663</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="1">
-        <v>4.7999999999999998E-6</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>1100396104.640527</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="2">
-        <v>3.4000000000000001E-6</v>
-      </c>
-      <c r="H55">
-        <f>SUM(D55*$K$2,H54)</f>
-        <v>1100399846.0000033</v>
+        <v>59</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/pobProb.xlsx
+++ b/data/pobProb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\usuarios\1077841023\Documents\GIT\IntegradoraDiscretas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\OneDrive - Universidad Icesi (@icesi.edu.co)\Documentos\GIT\Discretas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757183C3-7B36-4E08-9BB9-B6BF9ECC67D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23998A17-F1C4-4E07-BA00-CB29B1AE4689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AD7D6C99-4922-4445-B0E2-87F80E047F4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD7D6C99-4922-4445-B0E2-87F80E047F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -265,7 +275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08A4116-B9B3-4FF7-82A3-3377BBC85599}">
-  <dimension ref="B1:O55"/>
+  <dimension ref="B1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
@@ -586,8 +596,8 @@
         <v>0.32</v>
       </c>
       <c r="H1">
-        <f>(D1*K2)+(K2-1082658869.56283)</f>
-        <v>369868927.15717006</v>
+        <f>(D1*K2)+(K2-1031670)</f>
+        <v>352450.32</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -605,11 +615,10 @@
       </c>
       <c r="H2">
         <f>SUM(D2*$K$2,H1)</f>
-        <v>597651695.27917004</v>
+        <v>569505.55200000003</v>
       </c>
       <c r="K2">
-        <f>PRODUCT(6782,162253)</f>
-        <v>1100399846</v>
+        <v>1048576</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -626,8 +635,8 @@
         <v>55</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H55" si="0">SUM(D3*$K$2,H2)</f>
-        <v>729699676.79917002</v>
+        <f t="shared" ref="H3:H54" si="0">SUM(D3*$K$2,H2)</f>
+        <v>695334.67200000002</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -642,7 +651,7 @@
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>783619269.25317001</v>
+        <v>746714.89600000007</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -657,7 +666,7 @@
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>832036862.47716999</v>
+        <v>792852.24000000011</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -672,7 +681,7 @@
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
-        <v>871651256.93316996</v>
+        <v>830600.97600000014</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -687,7 +696,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>906864052.00516999</v>
+        <v>864155.40800000017</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -702,7 +711,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>936574847.84717</v>
+        <v>892466.9600000002</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -717,7 +726,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>956382045.07517004</v>
+        <v>911341.32800000021</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -732,7 +741,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>975088842.45717001</v>
+        <v>929167.12000000023</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -747,7 +756,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>993795639.83916998</v>
+        <v>946992.91200000024</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -762,7 +771,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>1005900038.14517</v>
+        <v>958527.24800000025</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -777,7 +786,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>1018004436.45117</v>
+        <v>970061.58400000026</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -792,7 +801,7 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>1030108834.75717</v>
+        <v>981595.92000000027</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -807,7 +816,7 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>1041773073.1247699</v>
+        <v>992710.82560000033</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -822,7 +831,7 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>1052336911.6463699</v>
+        <v>1002777.1552000004</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -837,7 +846,7 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1059929670.5837699</v>
+        <v>1010012.3296000004</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -852,7 +861,7 @@
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>1066972229.5981699</v>
+        <v>1016723.2160000004</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -867,7 +876,7 @@
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1073904748.62797</v>
+        <v>1023329.2448000003</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -882,7 +891,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1079296707.8733699</v>
+        <v>1028467.2672000004</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -897,7 +906,7 @@
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1083918387.2265699</v>
+        <v>1032871.2864000003</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -912,7 +921,7 @@
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1087549706.71837</v>
+        <v>1036331.5872000003</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -927,7 +936,7 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1090630826.2871699</v>
+        <v>1039267.6000000003</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -942,7 +951,7 @@
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1093601905.8713698</v>
+        <v>1042098.7552000004</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -957,7 +966,7 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1095032425.6711698</v>
+        <v>1043461.9040000003</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -972,7 +981,7 @@
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1095868729.5541298</v>
+        <v>1044258.8217600003</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -987,7 +996,7 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1096495957.4663498</v>
+        <v>1044856.5100800003</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1002,7 +1011,7 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1096925113.4062898</v>
+        <v>1045265.4547200003</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1017,7 +1026,7 @@
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>1097343265.3477697</v>
+        <v>1045663.9136000003</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1032,7 +1041,7 @@
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
-        <v>1097761417.2892497</v>
+        <v>1046062.3724800004</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1047,7 +1056,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1098157561.2338097</v>
+        <v>1046439.8598400004</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -1062,7 +1071,7 @@
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>1098476677.1891496</v>
+        <v>1046743.9468800004</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -1077,7 +1086,7 @@
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>1098784789.1460297</v>
+        <v>1047037.5481600004</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -1092,7 +1101,7 @@
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>1099081897.1044497</v>
+        <v>1047320.6636800003</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1107,7 +1116,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
-        <v>1099257961.0798097</v>
+        <v>1047488.4358400004</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1122,7 +1131,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>1099379005.0628695</v>
+        <v>1047603.7792000005</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -1137,7 +1146,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>1099497848.2462375</v>
+        <v>1047717.0254080005</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -1152,7 +1161,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>1099612289.8302214</v>
+        <v>1047826.0773120004</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1167,7 +1176,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>1099724530.6145134</v>
+        <v>1047933.0320640005</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -1182,7 +1191,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>1099829068.5998833</v>
+        <v>1048032.6467840004</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1197,7 +1206,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>1099906426.7090571</v>
+        <v>1048106.3616768004</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1212,7 +1221,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>1099976852.299201</v>
+        <v>1048173.4705408004</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -1227,7 +1236,7 @@
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>1100043976.6898069</v>
+        <v>1048237.4336768003</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1242,7 +1251,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>1100104498.6813369</v>
+        <v>1048295.1053568004</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -1257,7 +1266,7 @@
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>1100161719.4733288</v>
+        <v>1048349.6313088004</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -1272,7 +1281,7 @@
       </c>
       <c r="H46">
         <f t="shared" si="0"/>
-        <v>1100217839.8654749</v>
+        <v>1048403.1086848004</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -1287,7 +1296,7 @@
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
-        <v>1100258554.6597769</v>
+        <v>1048441.9059968004</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -1302,10 +1311,10 @@
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
-        <v>1100299269.4540789</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1048480.7033088004</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>49</v>
       </c>
@@ -1317,13 +1326,10 @@
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
-        <v>1100331181.049613</v>
-      </c>
-      <c r="O49">
-        <v>1082658869.56283</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1048511.1120128003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>50</v>
       </c>
@@ -1335,10 +1341,10 @@
       </c>
       <c r="H50">
         <f t="shared" si="0"/>
-        <v>1100358691.045763</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1048537.3264128004</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>51</v>
       </c>
@@ -1350,10 +1356,10 @@
       </c>
       <c r="H51">
         <f t="shared" si="0"/>
-        <v>1100374096.6436069</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1048552.0064768003</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>52</v>
       </c>
@@ -1365,10 +1371,10 @@
       </c>
       <c r="H52">
         <f t="shared" si="0"/>
-        <v>1100384660.4821286</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1048562.0728064004</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>53</v>
       </c>
@@ -1380,10 +1386,10 @@
       </c>
       <c r="H53">
         <f t="shared" si="0"/>
-        <v>1100390822.7212663</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1048567.9448320004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>54</v>
       </c>
@@ -1395,10 +1401,10 @@
       </c>
       <c r="H54">
         <f t="shared" si="0"/>
-        <v>1100396104.640527</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+        <v>1048572.9779968004</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>55</v>
       </c>
@@ -1410,7 +1416,7 @@
       </c>
       <c r="H55">
         <f>SUM(D55*$K$2,H54)</f>
-        <v>1100399846.0000033</v>
+        <v>1048576.5431552005</v>
       </c>
     </row>
   </sheetData>

--- a/data/pobProb.xlsx
+++ b/data/pobProb.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\OneDrive - Universidad Icesi (@icesi.edu.co)\Documentos\GIT\Discretas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows 10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23998A17-F1C4-4E07-BA00-CB29B1AE4689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306E579F-F2E7-463F-963B-D8D7A4384A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD7D6C99-4922-4445-B0E2-87F80E047F4E}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{AD7D6C99-4922-4445-B0E2-87F80E047F4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>USA</t>
   </si>
@@ -49,6 +49,18 @@
     <t>Guatemala</t>
   </si>
   <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
     <t>Haiti</t>
   </si>
   <si>
@@ -58,12 +70,18 @@
     <t>Dominician Republic</t>
   </si>
   <si>
+    <t>0.0106</t>
+  </si>
+  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>Nicaragua</t>
   </si>
   <si>
+    <t>0.0064</t>
+  </si>
+  <si>
     <t>El salvador</t>
   </si>
   <si>
@@ -73,18 +91,39 @@
     <t>Panama</t>
   </si>
   <si>
+    <t>0.0049</t>
+  </si>
+  <si>
+    <t>0.0028</t>
+  </si>
+  <si>
+    <t>0.0063</t>
+  </si>
+  <si>
+    <t>0.0042</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jamaica </t>
   </si>
   <si>
     <t>Puerto Rico</t>
   </si>
   <si>
+    <t>0.0027</t>
+  </si>
+  <si>
+    <t>0.0013</t>
+  </si>
+  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>0.00039</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -94,51 +133,99 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>0.00038</t>
+  </si>
+  <si>
+    <t>0.00036</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t>Colombia</t>
   </si>
   <si>
+    <t>0.049</t>
+  </si>
+  <si>
     <t>Argentina</t>
   </si>
   <si>
+    <t>0.044</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
+    <t>0.032</t>
+  </si>
+  <si>
     <t>Venezuela</t>
   </si>
   <si>
+    <t>0.027</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
+    <t>0.018</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
     <t>Bolivia</t>
   </si>
   <si>
+    <t>0.011</t>
+  </si>
+  <si>
     <t>Paraguay</t>
   </si>
   <si>
+    <t>0.0069</t>
+  </si>
+  <si>
     <t>Uruguay</t>
   </si>
   <si>
+    <t>0.0033</t>
+  </si>
+  <si>
     <t>Guyana</t>
   </si>
   <si>
+    <t>0.00076</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
+    <t>0.00057</t>
+  </si>
+  <si>
+    <t>0.00029</t>
+  </si>
+  <si>
     <t>French Guiana</t>
   </si>
   <si>
     <t>Falkland Islands</t>
   </si>
   <si>
+    <t>0.0000034</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
+    <t>0.00028</t>
+  </si>
+  <si>
     <t>Saint Lucia</t>
   </si>
   <si>
@@ -200,6 +287,69 @@
   </si>
   <si>
     <t>Montserrat</t>
+  </si>
+  <si>
+    <t>0.00027</t>
+  </si>
+  <si>
+    <t>0.00016</t>
+  </si>
+  <si>
+    <t>0.00011</t>
+  </si>
+  <si>
+    <t>0.000108</t>
+  </si>
+  <si>
+    <t>0.000104</t>
+  </si>
+  <si>
+    <t>0.000102</t>
+  </si>
+  <si>
+    <t>0.000095</t>
+  </si>
+  <si>
+    <t>0.0000096</t>
+  </si>
+  <si>
+    <t>0.0000703</t>
+  </si>
+  <si>
+    <t>0.000064</t>
+  </si>
+  <si>
+    <t>0.000061</t>
+  </si>
+  <si>
+    <t>0.000055</t>
+  </si>
+  <si>
+    <t>0.000052</t>
+  </si>
+  <si>
+    <t>0.000051</t>
+  </si>
+  <si>
+    <t>0.000037</t>
+  </si>
+  <si>
+    <t>0.000029</t>
+  </si>
+  <si>
+    <t>0.000025</t>
+  </si>
+  <si>
+    <t>0.000014</t>
+  </si>
+  <si>
+    <t>0.0000056</t>
+  </si>
+  <si>
+    <t>0.0000048</t>
+  </si>
+  <si>
+    <t>0.0096</t>
   </si>
   <si>
     <t>South America</t>
@@ -571,852 +721,627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08A4116-B9B3-4FF7-82A3-3377BBC85599}">
-  <dimension ref="B1:K55"/>
+  <dimension ref="B1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
-        <v>0.32</v>
-      </c>
-      <c r="H1">
-        <f>(D1*K2)+(K2-1031670)</f>
-        <v>352450.32</v>
-      </c>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.20699999999999999</v>
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2">
-        <f>SUM(D2*$K$2,H1)</f>
-        <v>569505.55200000003</v>
-      </c>
-      <c r="K2">
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.12</v>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H54" si="0">SUM(D3*$K$2,H2)</f>
-        <v>695334.67200000002</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>746714.89600000007</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>792852.24000000011</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>830600.97600000014</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>864155.40800000017</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>892466.9600000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>911341.32800000021</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>929167.12000000023</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>946992.91200000024</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>958527.24800000025</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>970061.58400000026</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>981595.92000000027</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.06E-2</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>992710.82560000033</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>1002777.1552000004</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>17</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>1010012.3296000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>6.4000000000000003E-3</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1016723.2160000004</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1">
-        <v>6.3E-3</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>1023329.2448000003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>1028467.2672000004</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>1032871.2864000003</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2">
-        <v>3.3E-3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>1036331.5872000003</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>1039267.6000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>1042098.7552000004</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>1043461.9040000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2">
-        <v>7.6000000000000004E-4</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>1044258.8217600003</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>27</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5.6999999999999998E-4</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>1044856.5100800003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>1045265.4547200003</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>29</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3.8000000000000002E-4</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>1045663.9136000003</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="1">
-        <v>3.8000000000000002E-4</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>1046062.3724800004</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="1">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>1046439.8598400004</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>32</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2.9E-4</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>1046743.9468800004</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2.7999999999999998E-4</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>1047037.5481600004</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>34</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2.7E-4</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>1047320.6636800003</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>35</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>1047488.4358400004</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>36</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.1E-4</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>1047603.7792000005</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>37</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.08E-4</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>1047717.0254080005</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.0399999999999999E-4</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>1047826.0773120004</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.02E-4</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>1047933.0320640005</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>40</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>1048032.6467840004</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="1">
-        <v>7.0300000000000001E-5</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>1048106.3616768004</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="1">
-        <v>6.3999999999999997E-5</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>1048173.4705408004</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="1">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>1048237.4336768003</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="1">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>1048295.1053568004</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="1">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>1048349.6313088004</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="1">
-        <v>5.1E-5</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>1048403.1086848004</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>47</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="1">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>1048441.9059968004</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="1">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>1048480.7033088004</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>49</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2.9E-5</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>1048511.1120128003</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>50</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>1048537.3264128004</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1.4E-5</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="0"/>
-        <v>1048552.0064768003</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>52</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="1">
-        <v>9.5999999999999996E-6</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>1048562.0728064004</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>53</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" s="1">
-        <v>5.5999999999999997E-6</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>1048567.9448320004</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>54</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="1">
-        <v>4.7999999999999998E-6</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>1048572.9779968004</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="2">
-        <v>3.4000000000000001E-6</v>
-      </c>
-      <c r="H55">
-        <f>SUM(D55*$K$2,H54)</f>
-        <v>1048576.5431552005</v>
+        <v>59</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
